--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Key to Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Key to Top Level Folders" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="377">
   <si>
     <t>Top Level Folder</t>
   </si>
@@ -303,9 +303,6 @@
     <t>BFCpUEbS</t>
   </si>
   <si>
-    <t>BFTRbF</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
     <t>BAU Fuel Cost per Unit Energy by Sector</t>
   </si>
   <si>
-    <t>BAU Fuel Tax Rate by Fuel</t>
-  </si>
-  <si>
     <t>BAU Subsidies</t>
   </si>
   <si>
@@ -513,9 +507,6 @@
     <t>BTU Conversion Factors</t>
   </si>
   <si>
-    <t>BTU per Million Short Tons Coal, BTU per Trillion Cubic Ft Natural Gas, Liquid Fuel BTU Conversion Factors</t>
-  </si>
-  <si>
     <t>Potential Reductions in End Year Process Emissions by Policy, PERAC Potential Perc Reduction in End Year Proc Emis from Cement, Mass CO2e Avoidable by Marginal Cost</t>
   </si>
   <si>
@@ -525,39 +516,21 @@
     <t>BLACE</t>
   </si>
   <si>
-    <t>CpMCAbIFM</t>
-  </si>
-  <si>
     <t>FoFObE</t>
   </si>
   <si>
-    <t>PCRfIFM</t>
-  </si>
-  <si>
     <t>RPEpUACE</t>
   </si>
   <si>
-    <t>VFC</t>
-  </si>
-  <si>
     <t>BAU LULUCF Anthropogenic CO2 Emissions</t>
   </si>
   <si>
     <t>Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
   <si>
-    <t>Potential CO2 Reduction from Improved Forest Management</t>
-  </si>
-  <si>
-    <t>Cost per Mass CO2 Abated by Improved Forest Management</t>
-  </si>
-  <si>
     <t>Fraction of Forests Owned by Entity</t>
   </si>
   <si>
-    <t>Various Forestry Calculations</t>
-  </si>
-  <si>
     <t>PEURfRC</t>
   </si>
   <si>
@@ -612,9 +585,6 @@
     <t>District Heating</t>
   </si>
   <si>
-    <t>Electricity Supply - Main, Electricity Supply - BAU, Electricity Supply - Cash Flow</t>
-  </si>
-  <si>
     <t>Fuels</t>
   </si>
   <si>
@@ -789,21 +759,12 @@
     <t>BAU Transmission and Distribution Loss Percentage</t>
   </si>
   <si>
-    <t>Potential Incremental Increase in CO2 Reduction from Afforestation and Reforestation Each Year, Lost Value per Incremental Increase in CO2 Abatement by Afforestation and Reforestation, One Time Cost per Incremental Increase in CO2 Abatement by Afforestation and Reforestation, Ongoing Cost per Mass CO2 Abated by Afforestation and Reforestation, Potential Annual CO2 Reduction from Forest Set Asides, Lost Value per Mass CO2 Abated by Forest Set Asides, Potential Annual CO2 Reduction from Avoided Deforestation, Lost Value per Mass CO2 Abated by Avoided Deforestation</t>
-  </si>
-  <si>
     <t>BCR</t>
   </si>
   <si>
     <t>BAU Capacity Retirements</t>
   </si>
   <si>
-    <t>EStCwCMC</t>
-  </si>
-  <si>
-    <t>Electricity Sources to Consider when Calculating Mean Cost</t>
-  </si>
-  <si>
     <t>ARpUIiRC</t>
   </si>
   <si>
@@ -1011,12 +972,6 @@
     <t>Maximum Possible Capacity Factor Reduction</t>
   </si>
   <si>
-    <t>BITPTaP</t>
-  </si>
-  <si>
-    <t>Boolean Is This Plant Type a Peaker</t>
-  </si>
-  <si>
     <t>Start Year Electricity Generation Capacity, Fraction of Peakers that Provide Flexibility Points</t>
   </si>
   <si>
@@ -1065,9 +1020,6 @@
     <t>MPPC</t>
   </si>
   <si>
-    <t>Maximum Power Plant Capacity</t>
-  </si>
-  <si>
     <t>BPoIFUfE</t>
   </si>
   <si>
@@ -1114,6 +1066,87 @@
   </si>
   <si>
     <t>BAU Industrial Fuel Use before CCS</t>
+  </si>
+  <si>
+    <t>Minimum Power Plant Capacity</t>
+  </si>
+  <si>
+    <t>AOCoLUPpUA</t>
+  </si>
+  <si>
+    <t>Annual Ongoing Cost of Land Use Policies per Unit Area</t>
+  </si>
+  <si>
+    <t>CApULAbIFM</t>
+  </si>
+  <si>
+    <t>CO2 Abated per Unit Land Area by Improved Forest Management</t>
+  </si>
+  <si>
+    <t>CiLVpUAAbP</t>
+  </si>
+  <si>
+    <t>Change in Land Value per Unit Area Affected by Policy</t>
+  </si>
+  <si>
+    <t>CSpULApYbP</t>
+  </si>
+  <si>
+    <t>ICoLUPpUA</t>
+  </si>
+  <si>
+    <t>Implementation Cost of Land Use Policies per Unit Area</t>
+  </si>
+  <si>
+    <t>PLANAbPiaSY</t>
+  </si>
+  <si>
+    <t>Potential Land Area Newly Affected by Policy in a Single Year</t>
+  </si>
+  <si>
+    <t>DpOCUfCC</t>
+  </si>
+  <si>
+    <t>Dollars per Output Currency Unit for Cost Curve</t>
+  </si>
+  <si>
+    <t>CO2 Sequestered per Unit Land Area per Year by Policy</t>
+  </si>
+  <si>
+    <t>CFQS</t>
+  </si>
+  <si>
+    <t>Cash Flow Quantization Size</t>
+  </si>
+  <si>
+    <t>n/a (only adjust if needed to dampen rounding error in near-zero changes in cash flows)</t>
+  </si>
+  <si>
+    <t>BTU per Total Primary Energy Unit</t>
+  </si>
+  <si>
+    <t>BpTPEU</t>
+  </si>
+  <si>
+    <t>Boolean Peaking and Flexibility Flags</t>
+  </si>
+  <si>
+    <t>BPaFF</t>
+  </si>
+  <si>
+    <t>Boolean Is This Plant Type a Peaker, Boolean Does This Plant Type Provide Flexibility</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Main, Electricity Supply - Cash Flow</t>
+  </si>
+  <si>
+    <t>BSoFPtiT</t>
+  </si>
+  <si>
+    <t>BAU Share of Fuel Price that is Tax</t>
+  </si>
+  <si>
+    <t>BTU per Million Short Tons Hard Coal, BTU per Trillion Cubic Ft Natural Gas, Liquid Fuel BTU Conversion Factors, BTU per Million Short Tons Lignite</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1526,259 +1559,259 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1789,11 +1822,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,11 +1835,11 @@
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1820,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,7 +1870,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1845,13 +1878,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1865,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1879,7 +1912,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,13 +1920,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,7 +1940,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,7 +1954,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1929,16 +1962,16 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1952,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,7 +1999,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,13 +2007,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,13 +2021,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,10 +2041,10 @@
         <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2022,10 +2055,10 @@
         <v>34</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2036,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,21 +2083,21 @@
         <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,7 +2111,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2092,10 +2125,10 @@
         <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2106,10 +2139,10 @@
         <v>39</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2120,10 +2153,10 @@
         <v>40</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2134,24 +2167,24 @@
         <v>41</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29.1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2162,7 +2195,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2176,7 +2209,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2193,7 +2226,7 @@
         <v>51</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2207,7 +2240,7 @@
         <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2224,7 +2257,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,7 +2274,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2249,41 +2282,41 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>186</v>
+        <v>366</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>185</v>
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,13 +2324,13 @@
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>359</v>
+        <v>61</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,41 +2338,41 @@
         <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>185</v>
+      <c r="E37" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,13 +2380,13 @@
         <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,13 +2394,13 @@
         <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>186</v>
+        <v>296</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2375,27 +2408,27 @@
         <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2403,13 +2436,13 @@
         <v>64</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>324</v>
+        <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>186</v>
+        <v>79</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,13 +2450,13 @@
         <v>64</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>187</v>
+        <v>312</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,41 +2464,41 @@
         <v>64</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>187</v>
+        <v>285</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2473,55 +2506,58 @@
         <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="E50" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2529,13 +2565,13 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,92 +2579,92 @@
         <v>64</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="E53" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="E55" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>285</v>
+      <c r="C56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>187</v>
+        <v>271</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,7 +2678,7 @@
         <v>87</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -2656,10 +2692,10 @@
         <v>88</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2667,13 +2703,13 @@
         <v>64</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,13 +2717,13 @@
         <v>64</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,7 +2737,7 @@
         <v>89</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,13 +2745,13 @@
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2723,13 +2759,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2743,7 +2779,7 @@
         <v>90</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2751,13 +2787,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,13 +2801,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2779,13 +2815,13 @@
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2793,13 +2829,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2813,7 +2849,7 @@
         <v>91</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,13 +2857,13 @@
         <v>64</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,13 +2871,13 @@
         <v>64</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2849,16 +2885,16 @@
         <v>64</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,13 +2902,13 @@
         <v>64</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2880,16 +2916,16 @@
         <v>64</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2897,13 +2933,13 @@
         <v>64</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2917,7 +2953,7 @@
         <v>92</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,13 +2964,13 @@
         <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>93</v>
       </c>
@@ -2942,27 +2978,27 @@
         <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2970,13 +3006,13 @@
         <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2984,667 +3020,734 @@
         <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>187</v>
+        <v>356</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>129</v>
+        <v>360</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>188</v>
+        <v>361</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>186</v>
+        <v>330</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>187</v>
+        <v>331</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>185</v>
+        <v>145</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>356</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>185</v>
+        <v>146</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>187</v>
+        <v>147</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>187</v>
+        <v>148</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>340</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>187</v>
+        <v>341</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>186</v>
+        <v>149</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>185</v>
+        <v>150</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>280</v>
+        <v>151</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>354</v>
+        <v>138</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>187</v>
+      <c r="D129" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3768,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,15 +3792,15 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3808,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3816,7 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3824,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,55 +3832,55 @@
         <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
